--- a/ValueSet-be-vs-dispenser-types.xlsx
+++ b/ValueSet-be-vs-dispenser-types.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-27T16:28:46+00:00</t>
+    <t>2022-05-29T07:59:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
